--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H2">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N2">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q2">
-        <v>388.124498334531</v>
+        <v>0.1179942651115555</v>
       </c>
       <c r="R2">
-        <v>3493.120485010779</v>
+        <v>1.061948386004</v>
       </c>
       <c r="S2">
-        <v>0.2844121520776335</v>
+        <v>0.0004614649322649446</v>
       </c>
       <c r="T2">
-        <v>0.2844121520776335</v>
+        <v>0.0004614649322649445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H3">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.155386</v>
       </c>
       <c r="O3">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P3">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q3">
-        <v>2.355703806154</v>
+        <v>0.7047644062995555</v>
       </c>
       <c r="R3">
-        <v>21.201334255386</v>
+        <v>6.342879656696</v>
       </c>
       <c r="S3">
-        <v>0.001726226486709054</v>
+        <v>0.00275627005014431</v>
       </c>
       <c r="T3">
-        <v>0.001726226486709054</v>
+        <v>0.00275627005014431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H4">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N4">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q4">
-        <v>0.129312457047</v>
+        <v>0.0149598031</v>
       </c>
       <c r="R4">
-        <v>1.163812113423</v>
+        <v>0.1346382279</v>
       </c>
       <c r="S4">
-        <v>9.475834263748077E-05</v>
+        <v>5.850644111992807E-05</v>
       </c>
       <c r="T4">
-        <v>9.475834263748077E-05</v>
+        <v>5.850644111992807E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H5">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N5">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q5">
-        <v>649.085942522529</v>
+        <v>106.318848505804</v>
       </c>
       <c r="R5">
-        <v>5841.773482702761</v>
+        <v>956.869636552236</v>
       </c>
       <c r="S5">
-        <v>0.4756410136137681</v>
+        <v>0.4158034305975173</v>
       </c>
       <c r="T5">
-        <v>0.4756410136137681</v>
+        <v>0.4158034305975173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>3.711597</v>
       </c>
       <c r="I6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N6">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q6">
-        <v>78.504721806007</v>
+        <v>0.07977417912033334</v>
       </c>
       <c r="R6">
-        <v>706.5424962540629</v>
+        <v>0.717967612083</v>
       </c>
       <c r="S6">
-        <v>0.05752715165600746</v>
+        <v>0.0003119896219485922</v>
       </c>
       <c r="T6">
-        <v>0.05752715165600745</v>
+        <v>0.0003119896219485922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.711597</v>
       </c>
       <c r="I7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.155386</v>
       </c>
       <c r="O7">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P7">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q7">
         <v>0.4764808012713333</v>
@@ -883,10 +883,10 @@
         <v>4.288327211442</v>
       </c>
       <c r="S7">
-        <v>0.0003491584032823686</v>
+        <v>0.001863473453360988</v>
       </c>
       <c r="T7">
-        <v>0.0003491584032823685</v>
+        <v>0.001863473453360988</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>3.711597</v>
       </c>
       <c r="I8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N8">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q8">
-        <v>0.026155624059</v>
+        <v>0.010114101825</v>
       </c>
       <c r="R8">
-        <v>0.235400616531</v>
+        <v>0.09102691642500001</v>
       </c>
       <c r="S8">
-        <v>1.916647199410211E-05</v>
+        <v>3.955534033100473E-05</v>
       </c>
       <c r="T8">
-        <v>1.916647199410211E-05</v>
+        <v>3.955534033100473E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.711597</v>
       </c>
       <c r="I9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N9">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q9">
-        <v>131.288572518813</v>
+        <v>71.88060247293301</v>
       </c>
       <c r="R9">
-        <v>1181.597152669317</v>
+        <v>646.925422256397</v>
       </c>
       <c r="S9">
-        <v>0.09620641215255635</v>
+        <v>0.2811185553804255</v>
       </c>
       <c r="T9">
-        <v>0.09620641215255633</v>
+        <v>0.2811185553804255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H10">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I10">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J10">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N10">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q10">
-        <v>3.257347894259667</v>
+        <v>0.009869472712222223</v>
       </c>
       <c r="R10">
-        <v>29.316131048337</v>
+        <v>0.08882525441</v>
       </c>
       <c r="S10">
-        <v>0.002386938543295546</v>
+        <v>3.859861792715482E-05</v>
       </c>
       <c r="T10">
-        <v>0.002386938543295545</v>
+        <v>3.859861792715482E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H11">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I11">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J11">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.155386</v>
       </c>
       <c r="O11">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P11">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q11">
-        <v>0.01977032335088889</v>
+        <v>0.05894907748222222</v>
       </c>
       <c r="R11">
-        <v>0.177932910158</v>
+        <v>0.53054169734</v>
       </c>
       <c r="S11">
-        <v>1.448741379538097E-05</v>
+        <v>0.0002305445270725329</v>
       </c>
       <c r="T11">
-        <v>1.448741379538096E-05</v>
+        <v>0.0002305445270725329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H12">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I12">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J12">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N12">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q12">
-        <v>0.001085259141</v>
+        <v>0.00125129275</v>
       </c>
       <c r="R12">
-        <v>0.009767332269000001</v>
+        <v>0.01126163475</v>
       </c>
       <c r="S12">
-        <v>7.952625747104838E-07</v>
+        <v>4.8936931263265E-06</v>
       </c>
       <c r="T12">
-        <v>7.952625747104837E-07</v>
+        <v>4.8936931263265E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H13">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I13">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J13">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N13">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q13">
-        <v>5.447475583587</v>
+        <v>8.89289808391</v>
       </c>
       <c r="R13">
-        <v>49.027280252283</v>
+        <v>80.03608275519001</v>
       </c>
       <c r="S13">
-        <v>0.00399183318952196</v>
+        <v>0.03477932260564322</v>
       </c>
       <c r="T13">
-        <v>0.003991833189521959</v>
+        <v>0.03477932260564322</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H14">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I14">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J14">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N14">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O14">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P14">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q14">
-        <v>39.54730377886634</v>
+        <v>0.07391777040888889</v>
       </c>
       <c r="R14">
-        <v>355.9257340097971</v>
+        <v>0.66525993368</v>
       </c>
       <c r="S14">
-        <v>0.02897970580285477</v>
+        <v>0.0002890857355030307</v>
       </c>
       <c r="T14">
-        <v>0.02897970580285477</v>
+        <v>0.0002890857355030307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H15">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I15">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J15">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.155386</v>
       </c>
       <c r="O15">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P15">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q15">
-        <v>0.2400305428664445</v>
+        <v>0.4415012333688889</v>
       </c>
       <c r="R15">
-        <v>2.160274885798</v>
+        <v>3.97351110032</v>
       </c>
       <c r="S15">
-        <v>0.0001758909925911638</v>
+        <v>0.001726671517118599</v>
       </c>
       <c r="T15">
-        <v>0.0001758909925911637</v>
+        <v>0.001726671517118599</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H16">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I16">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J16">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N16">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O16">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P16">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q16">
-        <v>0.013176078921</v>
+        <v>0.009371602</v>
       </c>
       <c r="R16">
-        <v>0.118584710289</v>
+        <v>0.084344418</v>
       </c>
       <c r="S16">
-        <v>9.655244587617802E-06</v>
+        <v>3.665149046061978E-05</v>
       </c>
       <c r="T16">
-        <v>9.6552445876178E-06</v>
+        <v>3.665149046061978E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H17">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I17">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J17">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N17">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q17">
-        <v>66.13753849004701</v>
+        <v>66.60367964968</v>
       </c>
       <c r="R17">
-        <v>595.237846410423</v>
+        <v>599.43311684712</v>
       </c>
       <c r="S17">
-        <v>0.04846465434619038</v>
+        <v>0.2604809859960359</v>
       </c>
       <c r="T17">
-        <v>0.04846465434619038</v>
+        <v>0.2604809859960359</v>
       </c>
     </row>
   </sheetData>
